--- a/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
@@ -469,13 +469,13 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>271798.6325859496</v>
+        <v>321036.0318722273</v>
       </c>
       <c r="C2" t="n">
         <v>237797.741135043</v>
       </c>
       <c r="D2" t="n">
-        <v>268965.2249650407</v>
+        <v>314099.5076441286</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>288105.4799752874</v>
+        <v>292721.4738696939</v>
       </c>
       <c r="C3" t="n">
         <v>253543.1693284514</v>
       </c>
       <c r="D3" t="n">
-        <v>285225.2874213844</v>
+        <v>289456.6151579237</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>370140.7548385102</v>
+        <v>403702.4691673766</v>
       </c>
       <c r="C4" t="n">
         <v>320419.6398034512</v>
       </c>
       <c r="D4" t="n">
-        <v>365997.3285855887</v>
+        <v>396762.2333870495</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>277766.757666676</v>
+        <v>347829.1489871467</v>
       </c>
       <c r="C5" t="n">
         <v>270061.5102410465</v>
       </c>
       <c r="D5" t="n">
-        <v>277124.6537145402</v>
+        <v>341348.5124249716</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>231594.6561954168</v>
+        <v>271257.0192718031</v>
       </c>
       <c r="C6" t="n">
         <v>228144.5992157333</v>
       </c>
       <c r="D6" t="n">
-        <v>231307.1514471098</v>
+        <v>267664.3176004639</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>321569.2156192136</v>
+        <v>278856.2571113728</v>
       </c>
       <c r="C7" t="n">
         <v>282942.1339375185</v>
       </c>
       <c r="D7" t="n">
-        <v>318350.2921457391</v>
+        <v>279196.746846885</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>234911.643393828</v>
+        <v>318231.1578135173</v>
       </c>
       <c r="C8" t="n">
         <v>240089.5078893664</v>
       </c>
       <c r="D8" t="n">
-        <v>235343.1321017895</v>
+        <v>311719.3536531714</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>301239.7362016944</v>
+        <v>367764.9005579072</v>
       </c>
       <c r="C9" t="n">
         <v>272125.8529050022</v>
       </c>
       <c r="D9" t="n">
-        <v>298813.5792603033</v>
+        <v>359794.9799201651</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>366360.317042113</v>
+        <v>291550.6707028219</v>
       </c>
       <c r="C10" t="n">
         <v>323779.5510971916</v>
       </c>
       <c r="D10" t="n">
-        <v>362811.9198800362</v>
+        <v>294236.410735686</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>389571.9191691824</v>
+        <v>315152.5512481632</v>
       </c>
       <c r="C11" t="n">
         <v>338494.1055868421</v>
       </c>
       <c r="D11" t="n">
-        <v>385315.4347039873</v>
+        <v>317097.6807763864</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>309717.3579199017</v>
+        <v>375837.2355236089</v>
       </c>
       <c r="C12" t="n">
         <v>267462.0133578816</v>
       </c>
       <c r="D12" t="n">
-        <v>306196.0792064</v>
+        <v>366805.9670097982</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>245981.3008453489</v>
+        <v>211746.1261124267</v>
       </c>
       <c r="C13" t="n">
         <v>185586.524756638</v>
       </c>
       <c r="D13" t="n">
-        <v>240948.4028379563</v>
+        <v>209566.1593327776</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>268540.1426482609</v>
+        <v>264219.773688726</v>
       </c>
       <c r="C14" t="n">
         <v>209239.8368917084</v>
       </c>
       <c r="D14" t="n">
-        <v>263598.4505018815</v>
+        <v>259638.1122889745</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>291311.2482812752</v>
+        <v>279465.7153912376</v>
       </c>
       <c r="C15" t="n">
         <v>226316.0962368425</v>
       </c>
       <c r="D15" t="n">
-        <v>285894.9856109057</v>
+        <v>275036.5804617046</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>368344.2187040058</v>
+        <v>365735.9030053636</v>
       </c>
       <c r="C16" t="n">
         <v>293515.3563891502</v>
       </c>
       <c r="D16" t="n">
-        <v>362108.4801777678</v>
+        <v>359717.5241206791</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>271930.0152501121</v>
+        <v>289513.2690410864</v>
       </c>
       <c r="C17" t="n">
         <v>242434.3490191173</v>
       </c>
       <c r="D17" t="n">
-        <v>269472.0430641958</v>
+        <v>285590.0257059223</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>234349.5875311278</v>
+        <v>238456.9661179858</v>
       </c>
       <c r="C18" t="n">
         <v>199772.370555382</v>
       </c>
       <c r="D18" t="n">
-        <v>231468.152783149</v>
+        <v>235233.2498211022</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>325110.0165698372</v>
+        <v>247915.1612377655</v>
       </c>
       <c r="C19" t="n">
         <v>252207.178670302</v>
       </c>
       <c r="D19" t="n">
-        <v>319034.7800782092</v>
+        <v>248272.8293571435</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>229968.8163175097</v>
+        <v>291348.4363634681</v>
       </c>
       <c r="C20" t="n">
         <v>212176.3753878631</v>
       </c>
       <c r="D20" t="n">
-        <v>228486.1129067058</v>
+        <v>284750.764615501</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>298784.9976014085</v>
+        <v>353817.9960242216</v>
       </c>
       <c r="C21" t="n">
         <v>245141.9108877479</v>
       </c>
       <c r="D21" t="n">
-        <v>294314.7403752701</v>
+        <v>344761.6555961822</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>370398.7782060033</v>
+        <v>290436.7331768655</v>
       </c>
       <c r="C22" t="n">
         <v>296842.1757808067</v>
       </c>
       <c r="D22" t="n">
-        <v>364269.061337237</v>
+        <v>290970.5200605273</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>389405.8184038551</v>
+        <v>307841.1563773793</v>
       </c>
       <c r="C23" t="n">
         <v>310386.0608791951</v>
       </c>
       <c r="D23" t="n">
-        <v>382820.8386101335</v>
+        <v>308053.2317525306</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>305770.9987574001</v>
+        <v>359325.7367899676</v>
       </c>
       <c r="C24" t="n">
         <v>238865.7773377378</v>
       </c>
       <c r="D24" t="n">
-        <v>300195.5636390949</v>
+        <v>349287.4068356151</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>249243.0819509546</v>
+        <v>212267.8361799821</v>
       </c>
       <c r="C25" t="n">
         <v>155914.1899228996</v>
       </c>
       <c r="D25" t="n">
-        <v>241465.67428195</v>
+        <v>207571.6989918918</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>272382.3296626565</v>
+        <v>265908.0055695586</v>
       </c>
       <c r="C26" t="n">
         <v>180736.6669665626</v>
       </c>
       <c r="D26" t="n">
-        <v>264745.1911046487</v>
+        <v>258810.3940193089</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>288943.6757821734</v>
+        <v>270381.8898924313</v>
       </c>
       <c r="C27" t="n">
         <v>199133.0779405917</v>
       </c>
       <c r="D27" t="n">
-        <v>281459.4592953749</v>
+        <v>264444.4888964447</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>366923.5639980989</v>
+        <v>363126.643841342</v>
       </c>
       <c r="C28" t="n">
         <v>266572.4520490392</v>
       </c>
       <c r="D28" t="n">
-        <v>358560.9713356772</v>
+        <v>355080.4611919834</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>275724.7920114616</v>
+        <v>289953.3713858131</v>
       </c>
       <c r="C29" t="n">
         <v>214765.9285829349</v>
       </c>
       <c r="D29" t="n">
-        <v>270644.886725751</v>
+        <v>283687.7511522399</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>234822.4583243147</v>
+        <v>233494.3842602293</v>
       </c>
       <c r="C30" t="n">
         <v>171369.3730494062</v>
       </c>
       <c r="D30" t="n">
-        <v>229534.7012180723</v>
+        <v>228317.2999926607</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>321677.632930306</v>
+        <v>244765.2100296445</v>
       </c>
       <c r="C31" t="n">
         <v>231752.8255196385</v>
       </c>
       <c r="D31" t="n">
-        <v>314183.898979417</v>
+        <v>243680.8446538106</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>231175.2667216607</v>
+        <v>290822.2933147367</v>
       </c>
       <c r="C32" t="n">
         <v>183489.1432034318</v>
       </c>
       <c r="D32" t="n">
-        <v>227201.4230951416</v>
+        <v>281877.8641387946</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>301806.2093313963</v>
+        <v>350872.0865388474</v>
       </c>
       <c r="C33" t="n">
         <v>213520.7103566104</v>
       </c>
       <c r="D33" t="n">
-        <v>294449.0844168307</v>
+        <v>339426.1385236609</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>368148.749758667</v>
+        <v>287723.8735357159</v>
       </c>
       <c r="C34" t="n">
         <v>264896.867464569</v>
       </c>
       <c r="D34" t="n">
-        <v>359544.4262341589</v>
+        <v>285821.6230297869</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>387478.9978681617</v>
+        <v>306758.4611053637</v>
       </c>
       <c r="C35" t="n">
         <v>281846.9269053</v>
       </c>
       <c r="D35" t="n">
-        <v>378676.3252879232</v>
+        <v>304682.4999220251</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>308776.3375587392</v>
+        <v>357404.2142220432</v>
       </c>
       <c r="C36" t="n">
         <v>211876.796335534</v>
       </c>
       <c r="D36" t="n">
-        <v>300701.3757901387</v>
+        <v>345276.9293981675</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>249935.683240784</v>
+        <v>210108.2637641233</v>
       </c>
       <c r="C37" t="n">
         <v>132352.1782965034</v>
       </c>
       <c r="D37" t="n">
-        <v>240137.0578287606</v>
+        <v>203628.589975155</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>269228.3474048051</v>
+        <v>264683.861418021</v>
       </c>
       <c r="C38" t="n">
         <v>153742.8752269678</v>
       </c>
       <c r="D38" t="n">
-        <v>259604.558056652</v>
+        <v>255438.7792354333</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>289559.8160011215</v>
+        <v>268947.8162301522</v>
       </c>
       <c r="C39" t="n">
         <v>168149.0793553983</v>
       </c>
       <c r="D39" t="n">
-        <v>279442.2546139779</v>
+        <v>260547.9214905894</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AO2008Sep', 'AO2009May', 'AO2017Aug', 'LS2020Mar', 'AO2020Apr', 'LS2020Apr', 'AO2020May', 'AO2020Aug', 'LS2020Sep', 'LS2021Apr']</t>
+          <t>['AO2008Sep', 'AO2009May', 'AO2017Aug', 'AO2020Apr', 'AO2020May', 'AO2020Aug']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1224,19 +1224,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>152060.4907603541</v>
+        <v>152060.5104541765</v>
       </c>
       <c r="L2" t="n">
-        <v>1.522342812676042</v>
+        <v>1.522342937677963</v>
       </c>
       <c r="M2" t="n">
-        <v>89192.49864314518</v>
+        <v>89192.48499473857</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1009561748513963</v>
+        <v>-0.100956460027863</v>
       </c>
       <c r="O2" t="n">
-        <v>354475.5288873159</v>
+        <v>354475.6117302379</v>
       </c>
       <c r="P2" t="n">
         <v>252301</v>
@@ -1245,19 +1245,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>45817.16124179001</v>
+        <v>84049.16425555514</v>
       </c>
       <c r="S2" t="n">
-        <v>32608.92816435574</v>
+        <v>47404.74866038226</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07227529167716698</v>
+        <v>0.186732148944209</v>
       </c>
       <c r="U2" t="n">
-        <v>17157.07094007861</v>
+        <v>24596.81208616076</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8997029626177208</v>
+        <v>0.7880376365847133</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1266,16 +1266,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>152060.4907603541</v>
+        <v>152060.5104541765</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.522342812676042</v>
+        <v>1.522342937677963</v>
       </c>
       <c r="AE2" t="n">
-        <v>89192.49864314518</v>
+        <v>89192.48499473857</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1009561748513963</v>
+        <v>-0.100956460027863</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1313,19 +1313,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>155582.4729254794</v>
+        <v>155582.4925438237</v>
       </c>
       <c r="L3" t="n">
-        <v>1.551416322534184</v>
+        <v>1.551416440635106</v>
       </c>
       <c r="M3" t="n">
-        <v>89318.91332642215</v>
+        <v>89318.90179548548</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1525468718046255</v>
+        <v>-0.1525471624679926</v>
       </c>
       <c r="O3" t="n">
-        <v>365942.6953803779</v>
+        <v>365942.7713197231</v>
       </c>
       <c r="P3" t="n">
         <v>252301</v>
@@ -1334,19 +1334,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>32621.42048543147</v>
+        <v>100455.9573164779</v>
       </c>
       <c r="S3" t="n">
-        <v>30899.03962414531</v>
+        <v>45361.10656080859</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08333384748191919</v>
+        <v>0.1784654592685625</v>
       </c>
       <c r="U3" t="n">
-        <v>17161.42029788146</v>
+        <v>23601.02609587361</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9099455829357184</v>
+        <v>0.805919305527017</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1363,16 +1363,16 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>155582.4729254794</v>
+        <v>155582.4925438237</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.551416322534184</v>
+        <v>1.551416440635106</v>
       </c>
       <c r="AE3" t="n">
-        <v>89318.91332642215</v>
+        <v>89318.90179548548</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1525468718046255</v>
+        <v>-0.1525471624679926</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AO2008Sep', 'AO2009May', 'AO2017Aug', 'LS2020Mar', 'AO2020Apr', 'LS2020Apr', 'AO2020May', 'AO2020Aug', 'LS2020Sep', 'LS2021Apr']</t>
+          <t>['AO2008Sep', 'AO2009May', 'AO2017Aug', 'AO2020Apr', 'AO2020May', 'AO2020Aug']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>95936.97596989482</v>
+        <v>120353.851741746</v>
       </c>
       <c r="S4" t="n">
         <v>65554.42265765439</v>
@@ -4751,7 +4751,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>271798.6325859496</v>
+        <v>321036.0318722273</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>288105.4799752874</v>
+        <v>292721.4738696939</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>370140.7548385102</v>
+        <v>403702.4691673766</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>277766.757666676</v>
+        <v>347829.1489871467</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>231594.6561954168</v>
+        <v>271257.0192718031</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>321569.2156192136</v>
+        <v>278856.2571113728</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>234911.643393828</v>
+        <v>318231.1578135173</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>301239.7362016944</v>
+        <v>367764.9005579072</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>366360.317042113</v>
+        <v>291550.6707028219</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>389571.9191691824</v>
+        <v>315152.5512481632</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>309717.3579199017</v>
+        <v>375837.2355236089</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>245981.3008453489</v>
+        <v>211746.1261124267</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>268540.1426482609</v>
+        <v>264219.773688726</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>291311.2482812752</v>
+        <v>279465.7153912376</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>368344.2187040058</v>
+        <v>365735.9030053636</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>271930.0152501121</v>
+        <v>289513.2690410864</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>234349.5875311278</v>
+        <v>238456.9661179858</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>325110.0165698372</v>
+        <v>247915.1612377655</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>229968.8163175097</v>
+        <v>291348.4363634681</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>298784.9976014085</v>
+        <v>353817.9960242216</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>370398.7782060033</v>
+        <v>290436.7331768655</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>389405.8184038551</v>
+        <v>307841.1563773793</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>305770.9987574001</v>
+        <v>359325.7367899676</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>249243.0819509546</v>
+        <v>212267.8361799821</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>272382.3296626565</v>
+        <v>265908.0055695586</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>288943.6757821734</v>
+        <v>270381.8898924313</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>366923.5639980989</v>
+        <v>363126.643841342</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>275724.7920114616</v>
+        <v>289953.3713858131</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>234822.4583243147</v>
+        <v>233494.3842602293</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>321677.632930306</v>
+        <v>244765.2100296445</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>231175.2667216607</v>
+        <v>290822.2933147367</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>301806.2093313963</v>
+        <v>350872.0865388474</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>368148.749758667</v>
+        <v>287723.8735357159</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>387478.9978681617</v>
+        <v>306758.4611053637</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>308776.3375587392</v>
+        <v>357404.2142220432</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>249935.683240784</v>
+        <v>210108.2637641233</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>269228.3474048051</v>
+        <v>264683.861418021</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>289559.8160011215</v>
+        <v>268947.8162301522</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5294,10 +5294,10 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>452344.0244259422</v>
+        <v>452344.0830256117</v>
       </c>
       <c r="D2" t="n">
-        <v>451531.1679308375</v>
+        <v>451531.2216472012</v>
       </c>
       <c r="E2" t="n">
         <v>442589.7464846857</v>
@@ -5311,10 +5311,10 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>354297.0282616023</v>
+        <v>354297.0964101269</v>
       </c>
       <c r="D3" t="n">
-        <v>354932.73052309</v>
+        <v>354932.792992571</v>
       </c>
       <c r="E3" t="n">
         <v>361925.455399455</v>
@@ -5328,10 +5328,10 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>372122.8945570551</v>
+        <v>372122.9907253395</v>
       </c>
       <c r="D4" t="n">
-        <v>372992.3588291458</v>
+        <v>372992.4469834066</v>
       </c>
       <c r="E4" t="n">
         <v>382556.4658221441</v>
@@ -5345,10 +5345,10 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>377702.5751433582</v>
+        <v>377702.6348944122</v>
       </c>
       <c r="D5" t="n">
-        <v>379971.7520948763</v>
+        <v>379971.8068666757</v>
       </c>
       <c r="E5" t="n">
         <v>404932.698561575</v>
@@ -5362,10 +5362,10 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>460172.1376695515</v>
+        <v>460172.1942344253</v>
       </c>
       <c r="D6" t="n">
-        <v>460946.5053603483</v>
+        <v>460946.5572114825</v>
       </c>
       <c r="E6" t="n">
         <v>469464.5499591128</v>
@@ -5379,10 +5379,10 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>405530.4424241729</v>
+        <v>405530.5008710775</v>
       </c>
       <c r="D7" t="n">
-        <v>407446.1704114727</v>
+        <v>407446.2239878019</v>
       </c>
       <c r="E7" t="n">
         <v>428519.1782717712</v>
@@ -5396,10 +5396,10 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>358555.0758531166</v>
+        <v>358555.1128427377</v>
       </c>
       <c r="D8" t="n">
-        <v>361999.2389351579</v>
+        <v>361999.2728423105</v>
       </c>
       <c r="E8" t="n">
         <v>399885.0328376123</v>
@@ -5413,10 +5413,10 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>437087.7958087648</v>
+        <v>437087.8282414688</v>
       </c>
       <c r="D9" t="n">
-        <v>439438.5474223433</v>
+        <v>439438.577152322</v>
       </c>
       <c r="E9" t="n">
         <v>465296.8151717078</v>
@@ -5430,10 +5430,10 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>395236.4080294388</v>
+        <v>395236.4465801143</v>
       </c>
       <c r="D10" t="n">
-        <v>398334.7484642708</v>
+        <v>398334.7838023901</v>
       </c>
       <c r="E10" t="n">
         <v>432416.4932474242</v>
@@ -5447,10 +5447,10 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>457936.5478804195</v>
+        <v>457936.5742793357</v>
       </c>
       <c r="D11" t="n">
-        <v>458219.7106987447</v>
+        <v>458219.7348977512</v>
       </c>
       <c r="E11" t="n">
         <v>461334.5017003217</v>
@@ -5464,10 +5464,10 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>520497.2671033505</v>
+        <v>520497.2940686637</v>
       </c>
       <c r="D12" t="n">
-        <v>519212.7093526973</v>
+        <v>519212.7340709011</v>
       </c>
       <c r="E12" t="n">
         <v>505082.5740955124</v>
@@ -5481,10 +5481,10 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>551571.2062577467</v>
+        <v>551571.2527670725</v>
       </c>
       <c r="D13" t="n">
-        <v>549300.0623397209</v>
+        <v>549300.1049732696</v>
       </c>
       <c r="E13" t="n">
         <v>524317.4792414381</v>
@@ -5498,10 +5498,10 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>451185.4207880147</v>
+        <v>451185.4909237524</v>
       </c>
       <c r="D14" t="n">
-        <v>452892.4862096018</v>
+        <v>452892.5505006947</v>
       </c>
       <c r="E14" t="n">
         <v>471670.2058470606</v>
@@ -5515,10 +5515,10 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>353584.6765199131</v>
+        <v>353584.7347842481</v>
       </c>
       <c r="D15" t="n">
-        <v>356298.7855459271</v>
+        <v>356298.8389549009</v>
       </c>
       <c r="E15" t="n">
         <v>386153.9848320812</v>
@@ -5532,10 +5532,10 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>367383.4382200068</v>
+        <v>367383.5466166658</v>
       </c>
       <c r="D16" t="n">
-        <v>370615.1530836961</v>
+        <v>370615.2524473001</v>
       </c>
       <c r="E16" t="n">
         <v>406164.016584278</v>
@@ -5549,10 +5549,10 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>376866.8921573169</v>
+        <v>376866.9607241795</v>
       </c>
       <c r="D17" t="n">
-        <v>380844.5061038107</v>
+        <v>380844.5689567681</v>
       </c>
       <c r="E17" t="n">
         <v>424598.2595152429</v>
@@ -5566,10 +5566,10 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>465009.0526486937</v>
+        <v>465009.0973864332</v>
       </c>
       <c r="D18" t="n">
-        <v>466637.0075262644</v>
+        <v>466637.048535859</v>
       </c>
       <c r="E18" t="n">
         <v>484544.5111795425</v>
@@ -5583,10 +5583,10 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>404708.3859655539</v>
+        <v>404708.4479687096</v>
       </c>
       <c r="D19" t="n">
-        <v>408767.3436241728</v>
+        <v>408767.4004603989</v>
       </c>
       <c r="E19" t="n">
         <v>453415.8778689818</v>
@@ -5600,10 +5600,10 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>357150.8940019754</v>
+        <v>357150.9549201071</v>
       </c>
       <c r="D20" t="n">
-        <v>362196.8342418796</v>
+        <v>362196.8900835004</v>
       </c>
       <c r="E20" t="n">
         <v>417702.1768808265</v>
@@ -5617,10 +5617,10 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>440499.7260910476</v>
+        <v>440499.7468740377</v>
       </c>
       <c r="D21" t="n">
-        <v>444223.5834036518</v>
+        <v>444223.6024547261</v>
       </c>
       <c r="E21" t="n">
         <v>485186.0138422984</v>
@@ -5634,10 +5634,10 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>396323.9272487871</v>
+        <v>396323.9505334658</v>
       </c>
       <c r="D22" t="n">
-        <v>400926.5596128489</v>
+        <v>400926.5809571377</v>
       </c>
       <c r="E22" t="n">
         <v>451555.5156175297</v>
@@ -5651,10 +5651,10 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>456410.1576071123</v>
+        <v>456410.211643344</v>
       </c>
       <c r="D23" t="n">
-        <v>458634.8488327926</v>
+        <v>458634.8983660049</v>
       </c>
       <c r="E23" t="n">
         <v>483106.4523152761</v>
@@ -5668,10 +5668,10 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>524002.3227844733</v>
+        <v>524002.3647046566</v>
       </c>
       <c r="D24" t="n">
-        <v>524371.7792588613</v>
+        <v>524371.8176856961</v>
       </c>
       <c r="E24" t="n">
         <v>528435.8004771301</v>
@@ -5685,10 +5685,10 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>558605.9035165941</v>
+        <v>558605.945657206</v>
       </c>
       <c r="D25" t="n">
-        <v>557741.7393713784</v>
+        <v>557741.7780002727</v>
       </c>
       <c r="E25" t="n">
         <v>548235.9337740064</v>
@@ -5702,10 +5702,10 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>451995.0260170833</v>
+        <v>451995.1222551471</v>
       </c>
       <c r="D26" t="n">
-        <v>455208.6428775086</v>
+        <v>455208.7310957338</v>
       </c>
       <c r="E26" t="n">
         <v>490558.4283421878</v>
@@ -5719,10 +5719,10 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>354055.7873763472</v>
+        <v>354055.8775937233</v>
       </c>
       <c r="D27" t="n">
-        <v>358430.25863047</v>
+        <v>358430.3413297315</v>
       </c>
       <c r="E27" t="n">
         <v>406549.442425821</v>
@@ -5736,10 +5736,10 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>370700.0149569134</v>
+        <v>370700.1111258557</v>
       </c>
       <c r="D28" t="n">
-        <v>375371.2772378267</v>
+        <v>375371.3653926905</v>
       </c>
       <c r="E28" t="n">
         <v>426755.1623278735</v>
@@ -5753,10 +5753,10 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>377660.8272986499</v>
+        <v>377660.8941980103</v>
       </c>
       <c r="D29" t="n">
-        <v>383397.1907446131</v>
+        <v>383397.2520690269</v>
       </c>
       <c r="E29" t="n">
         <v>446497.1886502093</v>
@@ -5770,10 +5770,10 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>463453.0406437987</v>
+        <v>463453.1176433904</v>
       </c>
       <c r="D30" t="n">
-        <v>467171.0816962704</v>
+        <v>467171.1522792294</v>
       </c>
       <c r="E30" t="n">
         <v>508069.5332734589</v>
@@ -5787,10 +5787,10 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>405965.9514296878</v>
+        <v>405966.0112097951</v>
       </c>
       <c r="D31" t="n">
-        <v>411606.6744483446</v>
+        <v>411606.7292467762</v>
       </c>
       <c r="E31" t="n">
         <v>473654.6276535689</v>
@@ -5804,10 +5804,10 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>358724.4547247367</v>
+        <v>358724.4937843913</v>
       </c>
       <c r="D32" t="n">
-        <v>365520.3638653658</v>
+        <v>365520.3996700492</v>
       </c>
       <c r="E32" t="n">
         <v>440275.3644122863</v>
@@ -5821,10 +5821,10 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>439086.6050521805</v>
+        <v>439086.6468865015</v>
       </c>
       <c r="D33" t="n">
-        <v>444581.3048490085</v>
+        <v>444581.343197136</v>
       </c>
       <c r="E33" t="n">
         <v>505023.0026141164</v>
@@ -5838,10 +5838,10 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>395927.7318806478</v>
+        <v>395927.7709406605</v>
       </c>
       <c r="D34" t="n">
-        <v>402162.4165388531</v>
+        <v>402162.4523438648</v>
       </c>
       <c r="E34" t="n">
         <v>470743.9477791117</v>
@@ -5855,10 +5855,10 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>458106.292320104</v>
+        <v>458106.3203583146</v>
       </c>
       <c r="D35" t="n">
-        <v>462010.5394002968</v>
+        <v>462010.5651019898</v>
       </c>
       <c r="E35" t="n">
         <v>504957.257282418</v>
@@ -5872,10 +5872,10 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>523660.7989182561</v>
+        <v>523660.8413270417</v>
       </c>
       <c r="D36" t="n">
-        <v>526006.4949045302</v>
+        <v>526006.5337792505</v>
       </c>
       <c r="E36" t="n">
         <v>551809.1507535459</v>
@@ -5889,10 +5889,10 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>557325.9925788831</v>
+        <v>557326.0620221749</v>
       </c>
       <c r="D37" t="n">
-        <v>558553.5171292678</v>
+        <v>558553.5807856187</v>
       </c>
       <c r="E37" t="n">
         <v>572056.2871835007</v>
@@ -5906,10 +5906,10 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>452999.8949770029</v>
+        <v>452999.9775481848</v>
       </c>
       <c r="D38" t="n">
-        <v>457697.7743949154</v>
+        <v>457697.8500851655</v>
       </c>
       <c r="E38" t="n">
         <v>509374.447991954</v>
@@ -5923,10 +5923,10 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>354758.3363859814</v>
+        <v>354758.4076487996</v>
       </c>
       <c r="D39" t="n">
-        <v>360777.0653021534</v>
+        <v>360777.1306264034</v>
       </c>
       <c r="E39" t="n">
         <v>426983.0833800455</v>
@@ -5940,10 +5940,10 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>369463.6578230639</v>
+        <v>369463.7779178702</v>
       </c>
       <c r="D40" t="n">
-        <v>375958.0554984364</v>
+        <v>375958.1655853422</v>
       </c>
       <c r="E40" t="n">
         <v>447396.4299275342</v>
@@ -5957,10 +5957,10 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>377652.6132376579</v>
+        <v>377652.686623406</v>
       </c>
       <c r="D41" t="n">
-        <v>385219.3317233061</v>
+        <v>385219.3989935752</v>
       </c>
       <c r="E41" t="n">
         <v>468453.2350654365</v>
@@ -5974,10 +5974,10 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>464590.8303544053</v>
+        <v>464590.8808421118</v>
       </c>
       <c r="D42" t="n">
-        <v>470171.1330606315</v>
+        <v>470171.1793410291</v>
       </c>
       <c r="E42" t="n">
         <v>531554.4628291188</v>
@@ -5991,10 +5991,10 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>405415.6273480726</v>
+        <v>405415.6947602084</v>
       </c>
       <c r="D43" t="n">
-        <v>412786.5071467591</v>
+        <v>412786.568941217</v>
       </c>
       <c r="E43" t="n">
         <v>493866.1849323113</v>
@@ -6008,10 +6008,10 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>357968.5417886787</v>
+        <v>357968.6028091353</v>
       </c>
       <c r="D44" t="n">
-        <v>366708.4429159341</v>
+        <v>366708.4988513526</v>
       </c>
       <c r="E44" t="n">
         <v>462847.3553157432</v>
@@ -6025,10 +6025,10 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>439964.6039096478</v>
+        <v>439964.6270469827</v>
       </c>
       <c r="D45" t="n">
-        <v>447035.0491155643</v>
+        <v>447035.0703247879</v>
       </c>
       <c r="E45" t="n">
         <v>524809.946380645</v>
@@ -6042,10 +6042,10 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>396180.527390904</v>
+        <v>396180.5548981978</v>
       </c>
       <c r="D46" t="n">
-        <v>403997.5441563518</v>
+        <v>403997.5693713712</v>
       </c>
       <c r="E46" t="n">
         <v>489984.7285762791</v>
@@ -6059,10 +6059,10 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>457184.5082526919</v>
+        <v>457184.5603689022</v>
       </c>
       <c r="D47" t="n">
-        <v>462992.9393211583</v>
+        <v>462992.9870943511</v>
       </c>
       <c r="E47" t="n">
         <v>526885.6810742893</v>
@@ -6076,10 +6076,10 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>523889.4641761383</v>
+        <v>523889.5053488085</v>
       </c>
       <c r="D48" t="n">
-        <v>528165.2527257309</v>
+        <v>528165.2904673453</v>
       </c>
       <c r="E48" t="n">
         <v>575198.9267712488</v>
@@ -6093,10 +6093,10 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>558050.3559944367</v>
+        <v>558050.4028970733</v>
       </c>
       <c r="D49" t="n">
-        <v>561194.1691517882</v>
+        <v>561194.2121458718</v>
       </c>
       <c r="E49" t="n">
         <v>595776.1138826564</v>
@@ -6110,10 +6110,10 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>452433.0091366439</v>
+        <v>452433.1044968699</v>
       </c>
       <c r="D50" t="n">
-        <v>458740.410947167</v>
+        <v>458740.4983607075</v>
       </c>
       <c r="E50" t="n">
         <v>528121.8308629214</v>
@@ -6127,10 +6127,10 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>354381.9146378936</v>
+        <v>354382.0009843716</v>
       </c>
       <c r="D51" t="n">
-        <v>362138.216732878</v>
+        <v>362138.2958838162</v>
       </c>
       <c r="E51" t="n">
         <v>447457.5397777073</v>
@@ -6144,10 +6144,10 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>370165.5726341868</v>
+        <v>370165.6727353898</v>
       </c>
       <c r="D52" t="n">
-        <v>378325.8207647036</v>
+        <v>378325.9125241397</v>
       </c>
       <c r="E52" t="n">
         <v>468088.5502003888</v>
@@ -6161,10 +6161,10 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>377646.2705293025</v>
+        <v>377646.3397231663</v>
       </c>
       <c r="D53" t="n">
-        <v>387047.8132301808</v>
+        <v>387047.8766578893</v>
       </c>
       <c r="E53" t="n">
         <v>490464.7829398427</v>
@@ -6178,10 +6178,10 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>463956.4344659195</v>
+        <v>463956.5062182609</v>
       </c>
       <c r="D54" t="n">
-        <v>471543.1177885411</v>
+        <v>471543.1835615208</v>
       </c>
       <c r="E54" t="n">
         <v>554996.634337379</v>
@@ -6195,10 +6195,10 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>405736.2881441658</v>
+        <v>405736.3486840673</v>
       </c>
       <c r="D55" t="n">
-        <v>414762.5360196537</v>
+        <v>414762.5915145634</v>
       </c>
       <c r="E55" t="n">
         <v>514051.2626500201</v>
@@ -6212,10 +6212,10 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>358385.6911907074</v>
+        <v>358385.7354434263</v>
       </c>
       <c r="D56" t="n">
-        <v>368971.6433594708</v>
+        <v>368971.6839244632</v>
       </c>
       <c r="E56" t="n">
         <v>485417.1172158687</v>
@@ -6229,10 +6229,10 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>439466.3019978512</v>
+        <v>439466.3402449518</v>
       </c>
       <c r="D57" t="n">
-        <v>448746.518460526</v>
+        <v>448746.5535203683</v>
       </c>
       <c r="E57" t="n">
         <v>550828.8995499499</v>
@@ -6246,10 +6246,10 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>396048.9226628326</v>
+        <v>396048.9584168018</v>
       </c>
       <c r="D58" t="n">
-        <v>406207.2272430693</v>
+        <v>406207.260017541</v>
       </c>
       <c r="E58" t="n">
         <v>517948.5776256731</v>
@@ -6263,10 +6263,10 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>457702.4797237309</v>
+        <v>457702.5132723185</v>
       </c>
       <c r="D59" t="n">
-        <v>465132.8219199691</v>
+        <v>465132.852672841</v>
       </c>
       <c r="E59" t="n">
         <v>546866.5860785887</v>
@@ -6280,10 +6280,10 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>523751.9393069971</v>
+        <v>523751.9821093324</v>
       </c>
       <c r="D60" t="n">
-        <v>529323.8325708959</v>
+        <v>529323.87180637</v>
       </c>
       <c r="E60" t="n">
         <v>590614.6584737831</v>
@@ -6297,10 +6297,10 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>557648.0999899795</v>
+        <v>557648.1636783456</v>
       </c>
       <c r="D61" t="n">
-        <v>561998.2219591218</v>
+        <v>561998.280340124</v>
       </c>
       <c r="E61" t="n">
         <v>609849.563619687</v>
@@ -6314,10 +6314,10 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>452757.581106616</v>
+        <v>452757.6663804065</v>
       </c>
       <c r="D62" t="n">
-        <v>461461.306866508</v>
+        <v>461461.3850341493</v>
       </c>
       <c r="E62" t="n">
         <v>557202.2902253203</v>
@@ -6331,10 +6331,10 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>354586.2272972015</v>
+        <v>354586.3028772759</v>
       </c>
       <c r="D63" t="n">
-        <v>364344.5474566291</v>
+        <v>364344.6167383639</v>
       </c>
       <c r="E63" t="n">
         <v>471686.0692103329</v>
@@ -6348,10 +6348,10 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>369769.3357946217</v>
+        <v>369769.4509120755</v>
       </c>
       <c r="D64" t="n">
-        <v>379929.8995586135</v>
+        <v>379930.0050829461</v>
       </c>
       <c r="E64" t="n">
         <v>491696.1009625233</v>
@@ -6365,10 +6365,10 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>377657.3355781243</v>
+        <v>377657.4073225303</v>
       </c>
       <c r="D65" t="n">
-        <v>388696.7529377381</v>
+        <v>388696.8187034436</v>
       </c>
       <c r="E65" t="n">
         <v>510130.3438934901</v>
@@ -6382,10 +6382,10 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>464310.8763907513</v>
+        <v>464310.9326623364</v>
       </c>
       <c r="D66" t="n">
-        <v>473124.6863213374</v>
+        <v>473124.7379036238</v>
       </c>
       <c r="E66" t="n">
         <v>570076.5955577848</v>
@@ -6399,10 +6399,10 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>405550.3226253244</v>
+        <v>405550.3886139519</v>
       </c>
       <c r="D67" t="n">
-        <v>416666.7925938172</v>
+        <v>416666.8530833924</v>
       </c>
       <c r="E67" t="n">
         <v>538947.9622472379</v>
@@ -6416,10 +6416,10 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>358156.0209457907</v>
+        <v>358156.0770376323</v>
       </c>
       <c r="D68" t="n">
-        <v>370245.8743052313</v>
+        <v>370245.9257227528</v>
       </c>
       <c r="E68" t="n">
         <v>503234.2612590776</v>
@@ -6433,10 +6433,10 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>439749.2178637069</v>
+        <v>439749.2449719352</v>
       </c>
       <c r="D69" t="n">
-        <v>450663.2912267781</v>
+        <v>450663.3160759872</v>
       </c>
       <c r="E69" t="n">
         <v>570718.0982205604</v>
@@ -6450,10 +6450,10 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>396117.1353026874</v>
+        <v>396117.1655492666</v>
       </c>
       <c r="D70" t="n">
-        <v>407864.6740271131</v>
+        <v>407864.701753144</v>
       </c>
       <c r="E70" t="n">
         <v>537087.5999957962</v>
@@ -6467,10 +6467,10 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>457411.6299817063</v>
+        <v>457411.6768063809</v>
       </c>
       <c r="D71" t="n">
-        <v>466680.5388743586</v>
+        <v>466680.581796977</v>
       </c>
       <c r="E71" t="n">
         <v>568638.5366935348</v>
@@ -6484,10 +6484,10 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>523834.3291842873</v>
+        <v>523834.3704452746</v>
       </c>
       <c r="D72" t="n">
-        <v>531345.4588235437</v>
+        <v>531345.4966461153</v>
       </c>
       <c r="E72" t="n">
         <v>613967.8848553642</v>
@@ -6501,10 +6501,10 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>557871.4106221081</v>
+        <v>557871.4626079443</v>
       </c>
       <c r="D73" t="n">
-        <v>564196.1279162876</v>
+        <v>564196.1755699707</v>
       </c>
       <c r="E73" t="n">
         <v>633768.0181522627</v>
@@ -6518,10 +6518,10 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>452571.9076740986</v>
+        <v>452572.0003177053</v>
       </c>
       <c r="D74" t="n">
-        <v>462865.1247612928</v>
+        <v>462865.209684599</v>
       </c>
       <c r="E74" t="n">
         <v>576090.5127204299</v>
@@ -6535,10 +6535,10 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>354475.5288873159</v>
+        <v>354475.6117302379</v>
       </c>
       <c r="D75" t="n">
-        <v>365942.6953803779</v>
+        <v>365942.7713197231</v>
       </c>
       <c r="E75" t="n">
         <v>492081.5268040606</v>
@@ -6598,10 +6598,10 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>452344.0244259422</v>
+        <v>452344.0830256117</v>
       </c>
       <c r="D2" t="n">
-        <v>451531.1679308375</v>
+        <v>451531.2216472012</v>
       </c>
       <c r="E2" t="n">
         <v>442589.7464846857</v>
@@ -6615,10 +6615,10 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>354297.0282616023</v>
+        <v>354297.0964101269</v>
       </c>
       <c r="D3" t="n">
-        <v>354932.73052309</v>
+        <v>354932.792992571</v>
       </c>
       <c r="E3" t="n">
         <v>361925.455399455</v>
@@ -6632,10 +6632,10 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>372122.8945570551</v>
+        <v>372122.9907253395</v>
       </c>
       <c r="D4" t="n">
-        <v>372992.3588291458</v>
+        <v>372992.4469834066</v>
       </c>
       <c r="E4" t="n">
         <v>382556.4658221441</v>
@@ -6649,10 +6649,10 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>377702.5751433582</v>
+        <v>377702.6348944122</v>
       </c>
       <c r="D5" t="n">
-        <v>379971.7520948763</v>
+        <v>379971.8068666757</v>
       </c>
       <c r="E5" t="n">
         <v>404932.698561575</v>
@@ -6666,10 +6666,10 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>460172.1376695515</v>
+        <v>460172.1942344253</v>
       </c>
       <c r="D6" t="n">
-        <v>460946.5053603483</v>
+        <v>460946.5572114825</v>
       </c>
       <c r="E6" t="n">
         <v>469464.5499591128</v>
@@ -6683,10 +6683,10 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>405530.4424241729</v>
+        <v>405530.5008710775</v>
       </c>
       <c r="D7" t="n">
-        <v>407446.1704114727</v>
+        <v>407446.2239878019</v>
       </c>
       <c r="E7" t="n">
         <v>428519.1782717712</v>
@@ -6700,10 +6700,10 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>358555.0758531166</v>
+        <v>358555.1128427377</v>
       </c>
       <c r="D8" t="n">
-        <v>361999.2389351579</v>
+        <v>361999.2728423105</v>
       </c>
       <c r="E8" t="n">
         <v>399885.0328376123</v>
@@ -6717,10 +6717,10 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>437087.7958087648</v>
+        <v>437087.8282414688</v>
       </c>
       <c r="D9" t="n">
-        <v>439438.5474223433</v>
+        <v>439438.577152322</v>
       </c>
       <c r="E9" t="n">
         <v>465296.8151717078</v>
@@ -6734,10 +6734,10 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>395236.4080294388</v>
+        <v>395236.4465801143</v>
       </c>
       <c r="D10" t="n">
-        <v>398334.7484642708</v>
+        <v>398334.7838023901</v>
       </c>
       <c r="E10" t="n">
         <v>432416.4932474242</v>
@@ -6751,10 +6751,10 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>457936.5478804195</v>
+        <v>457936.5742793357</v>
       </c>
       <c r="D11" t="n">
-        <v>458219.7106987447</v>
+        <v>458219.7348977512</v>
       </c>
       <c r="E11" t="n">
         <v>461334.5017003217</v>
@@ -6768,10 +6768,10 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>520497.2671033505</v>
+        <v>520497.2940686637</v>
       </c>
       <c r="D12" t="n">
-        <v>519212.7093526973</v>
+        <v>519212.7340709011</v>
       </c>
       <c r="E12" t="n">
         <v>505082.5740955124</v>
@@ -6785,10 +6785,10 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>551571.2062577467</v>
+        <v>551571.2527670725</v>
       </c>
       <c r="D13" t="n">
-        <v>549300.0623397209</v>
+        <v>549300.1049732696</v>
       </c>
       <c r="E13" t="n">
         <v>524317.4792414381</v>
@@ -6802,10 +6802,10 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>451185.4207880147</v>
+        <v>451185.4909237524</v>
       </c>
       <c r="D14" t="n">
-        <v>452892.4862096018</v>
+        <v>452892.5505006947</v>
       </c>
       <c r="E14" t="n">
         <v>471670.2058470606</v>
@@ -6819,10 +6819,10 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>353584.6765199131</v>
+        <v>353584.7347842481</v>
       </c>
       <c r="D15" t="n">
-        <v>356298.7855459271</v>
+        <v>356298.8389549009</v>
       </c>
       <c r="E15" t="n">
         <v>386153.9848320812</v>
@@ -6836,10 +6836,10 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>367383.4382200068</v>
+        <v>367383.5466166658</v>
       </c>
       <c r="D16" t="n">
-        <v>370615.1530836961</v>
+        <v>370615.2524473001</v>
       </c>
       <c r="E16" t="n">
         <v>406164.016584278</v>
@@ -6853,10 +6853,10 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>376866.8921573169</v>
+        <v>376866.9607241795</v>
       </c>
       <c r="D17" t="n">
-        <v>380844.5061038107</v>
+        <v>380844.5689567681</v>
       </c>
       <c r="E17" t="n">
         <v>424598.2595152429</v>
@@ -6870,10 +6870,10 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>465009.0526486937</v>
+        <v>465009.0973864332</v>
       </c>
       <c r="D18" t="n">
-        <v>466637.0075262644</v>
+        <v>466637.048535859</v>
       </c>
       <c r="E18" t="n">
         <v>484544.5111795425</v>
@@ -6887,10 +6887,10 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>404708.3859655539</v>
+        <v>404708.4479687096</v>
       </c>
       <c r="D19" t="n">
-        <v>408767.3436241728</v>
+        <v>408767.4004603989</v>
       </c>
       <c r="E19" t="n">
         <v>453415.8778689818</v>
@@ -6904,10 +6904,10 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>357150.8940019754</v>
+        <v>357150.9549201071</v>
       </c>
       <c r="D20" t="n">
-        <v>362196.8342418796</v>
+        <v>362196.8900835004</v>
       </c>
       <c r="E20" t="n">
         <v>417702.1768808265</v>
@@ -6921,10 +6921,10 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>440499.7260910476</v>
+        <v>440499.7468740377</v>
       </c>
       <c r="D21" t="n">
-        <v>444223.5834036518</v>
+        <v>444223.6024547261</v>
       </c>
       <c r="E21" t="n">
         <v>485186.0138422984</v>
@@ -6938,10 +6938,10 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>396323.9272487871</v>
+        <v>396323.9505334658</v>
       </c>
       <c r="D22" t="n">
-        <v>400926.5596128489</v>
+        <v>400926.5809571377</v>
       </c>
       <c r="E22" t="n">
         <v>451555.5156175297</v>
@@ -6955,10 +6955,10 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>456410.1576071123</v>
+        <v>456410.211643344</v>
       </c>
       <c r="D23" t="n">
-        <v>458634.8488327926</v>
+        <v>458634.8983660049</v>
       </c>
       <c r="E23" t="n">
         <v>483106.4523152761</v>
@@ -6972,10 +6972,10 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>524002.3227844733</v>
+        <v>524002.3647046566</v>
       </c>
       <c r="D24" t="n">
-        <v>524371.7792588613</v>
+        <v>524371.8176856961</v>
       </c>
       <c r="E24" t="n">
         <v>528435.8004771301</v>
@@ -6989,10 +6989,10 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>558605.9035165941</v>
+        <v>558605.945657206</v>
       </c>
       <c r="D25" t="n">
-        <v>557741.7393713784</v>
+        <v>557741.7780002727</v>
       </c>
       <c r="E25" t="n">
         <v>548235.9337740064</v>
@@ -7006,10 +7006,10 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>451995.0260170833</v>
+        <v>451995.1222551471</v>
       </c>
       <c r="D26" t="n">
-        <v>455208.6428775086</v>
+        <v>455208.7310957338</v>
       </c>
       <c r="E26" t="n">
         <v>490558.4283421878</v>
@@ -7023,10 +7023,10 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>354055.7873763472</v>
+        <v>354055.8775937233</v>
       </c>
       <c r="D27" t="n">
-        <v>358430.25863047</v>
+        <v>358430.3413297315</v>
       </c>
       <c r="E27" t="n">
         <v>406549.442425821</v>
@@ -7040,10 +7040,10 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>370700.0149569134</v>
+        <v>370700.1111258557</v>
       </c>
       <c r="D28" t="n">
-        <v>375371.2772378267</v>
+        <v>375371.3653926905</v>
       </c>
       <c r="E28" t="n">
         <v>426755.1623278735</v>
@@ -7057,10 +7057,10 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>377660.8272986499</v>
+        <v>377660.8941980103</v>
       </c>
       <c r="D29" t="n">
-        <v>383397.1907446131</v>
+        <v>383397.2520690269</v>
       </c>
       <c r="E29" t="n">
         <v>446497.1886502093</v>
@@ -7074,10 +7074,10 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>463453.0406437987</v>
+        <v>463453.1176433904</v>
       </c>
       <c r="D30" t="n">
-        <v>467171.0816962704</v>
+        <v>467171.1522792294</v>
       </c>
       <c r="E30" t="n">
         <v>508069.5332734589</v>
@@ -7091,10 +7091,10 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>405965.9514296878</v>
+        <v>405966.0112097951</v>
       </c>
       <c r="D31" t="n">
-        <v>411606.6744483446</v>
+        <v>411606.7292467762</v>
       </c>
       <c r="E31" t="n">
         <v>473654.6276535689</v>
@@ -7108,10 +7108,10 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>358724.4547247367</v>
+        <v>358724.4937843913</v>
       </c>
       <c r="D32" t="n">
-        <v>365520.3638653658</v>
+        <v>365520.3996700492</v>
       </c>
       <c r="E32" t="n">
         <v>440275.3644122863</v>
@@ -7125,10 +7125,10 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>439086.6050521805</v>
+        <v>439086.6468865015</v>
       </c>
       <c r="D33" t="n">
-        <v>444581.3048490085</v>
+        <v>444581.343197136</v>
       </c>
       <c r="E33" t="n">
         <v>505023.0026141164</v>
@@ -7142,10 +7142,10 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>395927.7318806478</v>
+        <v>395927.7709406605</v>
       </c>
       <c r="D34" t="n">
-        <v>402162.4165388531</v>
+        <v>402162.4523438648</v>
       </c>
       <c r="E34" t="n">
         <v>470743.9477791117</v>
@@ -7159,10 +7159,10 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>458106.292320104</v>
+        <v>458106.3203583146</v>
       </c>
       <c r="D35" t="n">
-        <v>462010.5394002968</v>
+        <v>462010.5651019898</v>
       </c>
       <c r="E35" t="n">
         <v>504957.257282418</v>
@@ -7176,10 +7176,10 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>523660.7989182561</v>
+        <v>523660.8413270417</v>
       </c>
       <c r="D36" t="n">
-        <v>526006.4949045302</v>
+        <v>526006.5337792505</v>
       </c>
       <c r="E36" t="n">
         <v>551809.1507535459</v>
@@ -7193,10 +7193,10 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>557325.9925788831</v>
+        <v>557326.0620221749</v>
       </c>
       <c r="D37" t="n">
-        <v>558553.5171292678</v>
+        <v>558553.5807856187</v>
       </c>
       <c r="E37" t="n">
         <v>572056.2871835007</v>
@@ -7210,10 +7210,10 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>452999.8949770029</v>
+        <v>452999.9775481848</v>
       </c>
       <c r="D38" t="n">
-        <v>457697.7743949154</v>
+        <v>457697.8500851655</v>
       </c>
       <c r="E38" t="n">
         <v>509374.447991954</v>
@@ -7227,10 +7227,10 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>354758.3363859814</v>
+        <v>354758.4076487996</v>
       </c>
       <c r="D39" t="n">
-        <v>360777.0653021534</v>
+        <v>360777.1306264034</v>
       </c>
       <c r="E39" t="n">
         <v>426983.0833800455</v>
@@ -7244,10 +7244,10 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>369463.6578230639</v>
+        <v>369463.7779178702</v>
       </c>
       <c r="D40" t="n">
-        <v>375958.0554984364</v>
+        <v>375958.1655853422</v>
       </c>
       <c r="E40" t="n">
         <v>447396.4299275342</v>
@@ -7261,10 +7261,10 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>377652.6132376579</v>
+        <v>377652.686623406</v>
       </c>
       <c r="D41" t="n">
-        <v>385219.3317233061</v>
+        <v>385219.3989935752</v>
       </c>
       <c r="E41" t="n">
         <v>468453.2350654365</v>
@@ -7278,10 +7278,10 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>464590.8303544053</v>
+        <v>464590.8808421118</v>
       </c>
       <c r="D42" t="n">
-        <v>470171.1330606315</v>
+        <v>470171.1793410291</v>
       </c>
       <c r="E42" t="n">
         <v>531554.4628291188</v>
@@ -7295,10 +7295,10 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>405415.6273480726</v>
+        <v>405415.6947602084</v>
       </c>
       <c r="D43" t="n">
-        <v>412786.5071467591</v>
+        <v>412786.568941217</v>
       </c>
       <c r="E43" t="n">
         <v>493866.1849323113</v>
@@ -7312,10 +7312,10 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>357968.5417886787</v>
+        <v>357968.6028091353</v>
       </c>
       <c r="D44" t="n">
-        <v>366708.4429159341</v>
+        <v>366708.4988513526</v>
       </c>
       <c r="E44" t="n">
         <v>462847.3553157432</v>
@@ -7329,10 +7329,10 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>439964.6039096478</v>
+        <v>439964.6270469827</v>
       </c>
       <c r="D45" t="n">
-        <v>447035.0491155643</v>
+        <v>447035.0703247879</v>
       </c>
       <c r="E45" t="n">
         <v>524809.946380645</v>
@@ -7346,10 +7346,10 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>396180.527390904</v>
+        <v>396180.5548981978</v>
       </c>
       <c r="D46" t="n">
-        <v>403997.5441563518</v>
+        <v>403997.5693713712</v>
       </c>
       <c r="E46" t="n">
         <v>489984.7285762791</v>
@@ -7363,10 +7363,10 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>457184.5082526919</v>
+        <v>457184.5603689022</v>
       </c>
       <c r="D47" t="n">
-        <v>462992.9393211583</v>
+        <v>462992.9870943511</v>
       </c>
       <c r="E47" t="n">
         <v>526885.6810742893</v>
@@ -7380,10 +7380,10 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>523889.4641761383</v>
+        <v>523889.5053488085</v>
       </c>
       <c r="D48" t="n">
-        <v>528165.2527257309</v>
+        <v>528165.2904673453</v>
       </c>
       <c r="E48" t="n">
         <v>575198.9267712488</v>
@@ -7397,10 +7397,10 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>558050.3559944367</v>
+        <v>558050.4028970733</v>
       </c>
       <c r="D49" t="n">
-        <v>561194.1691517882</v>
+        <v>561194.2121458718</v>
       </c>
       <c r="E49" t="n">
         <v>595776.1138826564</v>
@@ -7414,10 +7414,10 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>452433.0091366439</v>
+        <v>452433.1044968699</v>
       </c>
       <c r="D50" t="n">
-        <v>458740.410947167</v>
+        <v>458740.4983607075</v>
       </c>
       <c r="E50" t="n">
         <v>528121.8308629214</v>
@@ -7431,10 +7431,10 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>354381.9146378936</v>
+        <v>354382.0009843716</v>
       </c>
       <c r="D51" t="n">
-        <v>362138.216732878</v>
+        <v>362138.2958838162</v>
       </c>
       <c r="E51" t="n">
         <v>447457.5397777073</v>
@@ -7448,10 +7448,10 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>370165.5726341868</v>
+        <v>370165.6727353898</v>
       </c>
       <c r="D52" t="n">
-        <v>378325.8207647036</v>
+        <v>378325.9125241397</v>
       </c>
       <c r="E52" t="n">
         <v>468088.5502003888</v>
@@ -7465,10 +7465,10 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>377646.2705293025</v>
+        <v>377646.3397231663</v>
       </c>
       <c r="D53" t="n">
-        <v>387047.8132301808</v>
+        <v>387047.8766578893</v>
       </c>
       <c r="E53" t="n">
         <v>490464.7829398427</v>
@@ -7482,10 +7482,10 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>463956.4344659195</v>
+        <v>463956.5062182609</v>
       </c>
       <c r="D54" t="n">
-        <v>471543.1177885411</v>
+        <v>471543.1835615208</v>
       </c>
       <c r="E54" t="n">
         <v>554996.634337379</v>
@@ -7499,10 +7499,10 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>405736.2881441658</v>
+        <v>405736.3486840673</v>
       </c>
       <c r="D55" t="n">
-        <v>414762.5360196537</v>
+        <v>414762.5915145634</v>
       </c>
       <c r="E55" t="n">
         <v>514051.2626500201</v>
@@ -7516,10 +7516,10 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>358385.6911907074</v>
+        <v>358385.7354434263</v>
       </c>
       <c r="D56" t="n">
-        <v>368971.6433594708</v>
+        <v>368971.6839244632</v>
       </c>
       <c r="E56" t="n">
         <v>485417.1172158687</v>
@@ -7533,10 +7533,10 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>439466.3019978512</v>
+        <v>439466.3402449518</v>
       </c>
       <c r="D57" t="n">
-        <v>448746.518460526</v>
+        <v>448746.5535203683</v>
       </c>
       <c r="E57" t="n">
         <v>550828.8995499499</v>
@@ -7550,10 +7550,10 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>396048.9226628326</v>
+        <v>396048.9584168018</v>
       </c>
       <c r="D58" t="n">
-        <v>406207.2272430693</v>
+        <v>406207.260017541</v>
       </c>
       <c r="E58" t="n">
         <v>517948.5776256731</v>
@@ -7567,10 +7567,10 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>457702.4797237309</v>
+        <v>457702.5132723185</v>
       </c>
       <c r="D59" t="n">
-        <v>465132.8219199691</v>
+        <v>465132.852672841</v>
       </c>
       <c r="E59" t="n">
         <v>546866.5860785887</v>
@@ -7584,10 +7584,10 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>523751.9393069971</v>
+        <v>523751.9821093324</v>
       </c>
       <c r="D60" t="n">
-        <v>529323.8325708959</v>
+        <v>529323.87180637</v>
       </c>
       <c r="E60" t="n">
         <v>590614.6584737831</v>
@@ -7601,10 +7601,10 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>557648.0999899795</v>
+        <v>557648.1636783456</v>
       </c>
       <c r="D61" t="n">
-        <v>561998.2219591218</v>
+        <v>561998.280340124</v>
       </c>
       <c r="E61" t="n">
         <v>609849.563619687</v>
@@ -7618,10 +7618,10 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>452757.581106616</v>
+        <v>452757.6663804065</v>
       </c>
       <c r="D62" t="n">
-        <v>461461.306866508</v>
+        <v>461461.3850341493</v>
       </c>
       <c r="E62" t="n">
         <v>557202.2902253203</v>
@@ -7635,10 +7635,10 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>354586.2272972015</v>
+        <v>354586.3028772759</v>
       </c>
       <c r="D63" t="n">
-        <v>364344.5474566291</v>
+        <v>364344.6167383639</v>
       </c>
       <c r="E63" t="n">
         <v>471686.0692103329</v>
@@ -7652,10 +7652,10 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>369769.3357946217</v>
+        <v>369769.4509120755</v>
       </c>
       <c r="D64" t="n">
-        <v>379929.8995586135</v>
+        <v>379930.0050829461</v>
       </c>
       <c r="E64" t="n">
         <v>491696.1009625233</v>
@@ -7669,10 +7669,10 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>377657.3355781243</v>
+        <v>377657.4073225303</v>
       </c>
       <c r="D65" t="n">
-        <v>388696.7529377381</v>
+        <v>388696.8187034436</v>
       </c>
       <c r="E65" t="n">
         <v>510130.3438934901</v>
@@ -7686,10 +7686,10 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>464310.8763907513</v>
+        <v>464310.9326623364</v>
       </c>
       <c r="D66" t="n">
-        <v>473124.6863213374</v>
+        <v>473124.7379036238</v>
       </c>
       <c r="E66" t="n">
         <v>570076.5955577848</v>
@@ -7703,10 +7703,10 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>405550.3226253244</v>
+        <v>405550.3886139519</v>
       </c>
       <c r="D67" t="n">
-        <v>416666.7925938172</v>
+        <v>416666.8530833924</v>
       </c>
       <c r="E67" t="n">
         <v>538947.9622472379</v>
@@ -7720,10 +7720,10 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>358156.0209457907</v>
+        <v>358156.0770376323</v>
       </c>
       <c r="D68" t="n">
-        <v>370245.8743052313</v>
+        <v>370245.9257227528</v>
       </c>
       <c r="E68" t="n">
         <v>503234.2612590776</v>
@@ -7737,10 +7737,10 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>439749.2178637069</v>
+        <v>439749.2449719352</v>
       </c>
       <c r="D69" t="n">
-        <v>450663.2912267781</v>
+        <v>450663.3160759872</v>
       </c>
       <c r="E69" t="n">
         <v>570718.0982205604</v>
@@ -7754,10 +7754,10 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>396117.1353026874</v>
+        <v>396117.1655492666</v>
       </c>
       <c r="D70" t="n">
-        <v>407864.6740271131</v>
+        <v>407864.701753144</v>
       </c>
       <c r="E70" t="n">
         <v>537087.5999957962</v>
@@ -7771,10 +7771,10 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>457411.6299817063</v>
+        <v>457411.6768063809</v>
       </c>
       <c r="D71" t="n">
-        <v>466680.5388743586</v>
+        <v>466680.581796977</v>
       </c>
       <c r="E71" t="n">
         <v>568638.5366935348</v>
@@ -7788,10 +7788,10 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>523834.3291842873</v>
+        <v>523834.3704452746</v>
       </c>
       <c r="D72" t="n">
-        <v>531345.4588235437</v>
+        <v>531345.4966461153</v>
       </c>
       <c r="E72" t="n">
         <v>613967.8848553642</v>
@@ -7805,10 +7805,10 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>557871.4106221081</v>
+        <v>557871.4626079443</v>
       </c>
       <c r="D73" t="n">
-        <v>564196.1279162876</v>
+        <v>564196.1755699707</v>
       </c>
       <c r="E73" t="n">
         <v>633768.0181522627</v>
@@ -7822,10 +7822,10 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>452571.9076740986</v>
+        <v>452572.0003177053</v>
       </c>
       <c r="D74" t="n">
-        <v>462865.1247612928</v>
+        <v>462865.209684599</v>
       </c>
       <c r="E74" t="n">
         <v>576090.5127204299</v>
@@ -7839,10 +7839,10 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>354475.5288873159</v>
+        <v>354475.6117302379</v>
       </c>
       <c r="D75" t="n">
-        <v>365942.6953803779</v>
+        <v>365942.7713197231</v>
       </c>
       <c r="E75" t="n">
         <v>492081.5268040606</v>
@@ -7894,10 +7894,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>271798.6325859496</v>
+        <v>321036.0318722273</v>
       </c>
       <c r="C2" t="n">
-        <v>268965.2249650407</v>
+        <v>314099.5076441286</v>
       </c>
       <c r="D2" t="n">
         <v>237797.741135043</v>
@@ -7908,10 +7908,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>288105.4799752874</v>
+        <v>292721.4738696939</v>
       </c>
       <c r="C3" t="n">
-        <v>285225.2874213844</v>
+        <v>289456.6151579237</v>
       </c>
       <c r="D3" t="n">
         <v>253543.1693284514</v>
@@ -7922,10 +7922,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>370140.7548385102</v>
+        <v>403702.4691673766</v>
       </c>
       <c r="C4" t="n">
-        <v>365997.3285855887</v>
+        <v>396762.2333870495</v>
       </c>
       <c r="D4" t="n">
         <v>320419.6398034512</v>
@@ -7936,10 +7936,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>277766.757666676</v>
+        <v>347829.1489871467</v>
       </c>
       <c r="C5" t="n">
-        <v>277124.6537145402</v>
+        <v>341348.5124249716</v>
       </c>
       <c r="D5" t="n">
         <v>270061.5102410465</v>
@@ -7950,10 +7950,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>231594.6561954168</v>
+        <v>271257.0192718031</v>
       </c>
       <c r="C6" t="n">
-        <v>231307.1514471098</v>
+        <v>267664.3176004639</v>
       </c>
       <c r="D6" t="n">
         <v>228144.5992157333</v>
@@ -7964,10 +7964,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>321569.2156192136</v>
+        <v>278856.2571113728</v>
       </c>
       <c r="C7" t="n">
-        <v>318350.2921457391</v>
+        <v>279196.746846885</v>
       </c>
       <c r="D7" t="n">
         <v>282942.1339375185</v>
@@ -7978,10 +7978,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>234911.643393828</v>
+        <v>318231.1578135173</v>
       </c>
       <c r="C8" t="n">
-        <v>235343.1321017895</v>
+        <v>311719.3536531714</v>
       </c>
       <c r="D8" t="n">
         <v>240089.5078893664</v>
@@ -7992,10 +7992,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>301239.7362016944</v>
+        <v>367764.9005579072</v>
       </c>
       <c r="C9" t="n">
-        <v>298813.5792603033</v>
+        <v>359794.9799201651</v>
       </c>
       <c r="D9" t="n">
         <v>272125.8529050022</v>
@@ -8006,10 +8006,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>366360.317042113</v>
+        <v>291550.6707028219</v>
       </c>
       <c r="C10" t="n">
-        <v>362811.9198800362</v>
+        <v>294236.410735686</v>
       </c>
       <c r="D10" t="n">
         <v>323779.5510971916</v>
@@ -8020,10 +8020,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>389571.9191691824</v>
+        <v>315152.5512481632</v>
       </c>
       <c r="C11" t="n">
-        <v>385315.4347039873</v>
+        <v>317097.6807763864</v>
       </c>
       <c r="D11" t="n">
         <v>338494.1055868421</v>
@@ -8034,10 +8034,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>309717.3579199017</v>
+        <v>375837.2355236089</v>
       </c>
       <c r="C12" t="n">
-        <v>306196.0792064</v>
+        <v>366805.9670097982</v>
       </c>
       <c r="D12" t="n">
         <v>267462.0133578816</v>
@@ -8048,10 +8048,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>245981.3008453489</v>
+        <v>211746.1261124267</v>
       </c>
       <c r="C13" t="n">
-        <v>240948.4028379563</v>
+        <v>209566.1593327776</v>
       </c>
       <c r="D13" t="n">
         <v>185586.524756638</v>
@@ -8062,10 +8062,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>268540.1426482609</v>
+        <v>264219.773688726</v>
       </c>
       <c r="C14" t="n">
-        <v>263598.4505018815</v>
+        <v>259638.1122889745</v>
       </c>
       <c r="D14" t="n">
         <v>209239.8368917084</v>
@@ -8076,10 +8076,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>291311.2482812752</v>
+        <v>279465.7153912376</v>
       </c>
       <c r="C15" t="n">
-        <v>285894.9856109057</v>
+        <v>275036.5804617046</v>
       </c>
       <c r="D15" t="n">
         <v>226316.0962368425</v>
@@ -8090,10 +8090,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>368344.2187040058</v>
+        <v>365735.9030053636</v>
       </c>
       <c r="C16" t="n">
-        <v>362108.4801777678</v>
+        <v>359717.5241206791</v>
       </c>
       <c r="D16" t="n">
         <v>293515.3563891502</v>
@@ -8104,10 +8104,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>271930.0152501121</v>
+        <v>289513.2690410864</v>
       </c>
       <c r="C17" t="n">
-        <v>269472.0430641958</v>
+        <v>285590.0257059223</v>
       </c>
       <c r="D17" t="n">
         <v>242434.3490191173</v>
@@ -8118,10 +8118,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>234349.5875311278</v>
+        <v>238456.9661179858</v>
       </c>
       <c r="C18" t="n">
-        <v>231468.152783149</v>
+        <v>235233.2498211022</v>
       </c>
       <c r="D18" t="n">
         <v>199772.370555382</v>
@@ -8132,10 +8132,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>325110.0165698372</v>
+        <v>247915.1612377655</v>
       </c>
       <c r="C19" t="n">
-        <v>319034.7800782092</v>
+        <v>248272.8293571435</v>
       </c>
       <c r="D19" t="n">
         <v>252207.178670302</v>
@@ -8146,10 +8146,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>229968.8163175097</v>
+        <v>291348.4363634681</v>
       </c>
       <c r="C20" t="n">
-        <v>228486.1129067058</v>
+        <v>284750.764615501</v>
       </c>
       <c r="D20" t="n">
         <v>212176.3753878631</v>
@@ -8160,10 +8160,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>298784.9976014085</v>
+        <v>353817.9960242216</v>
       </c>
       <c r="C21" t="n">
-        <v>294314.7403752701</v>
+        <v>344761.6555961822</v>
       </c>
       <c r="D21" t="n">
         <v>245141.9108877479</v>
@@ -8174,10 +8174,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>370398.7782060033</v>
+        <v>290436.7331768655</v>
       </c>
       <c r="C22" t="n">
-        <v>364269.061337237</v>
+        <v>290970.5200605273</v>
       </c>
       <c r="D22" t="n">
         <v>296842.1757808067</v>
@@ -8188,10 +8188,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>389405.8184038551</v>
+        <v>307841.1563773793</v>
       </c>
       <c r="C23" t="n">
-        <v>382820.8386101335</v>
+        <v>308053.2317525306</v>
       </c>
       <c r="D23" t="n">
         <v>310386.0608791951</v>
@@ -8202,10 +8202,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>305770.9987574001</v>
+        <v>359325.7367899676</v>
       </c>
       <c r="C24" t="n">
-        <v>300195.5636390949</v>
+        <v>349287.4068356151</v>
       </c>
       <c r="D24" t="n">
         <v>238865.7773377378</v>
@@ -8216,10 +8216,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>249243.0819509546</v>
+        <v>212267.8361799821</v>
       </c>
       <c r="C25" t="n">
-        <v>241465.67428195</v>
+        <v>207571.6989918918</v>
       </c>
       <c r="D25" t="n">
         <v>155914.1899228996</v>
@@ -8230,10 +8230,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>272382.3296626565</v>
+        <v>265908.0055695586</v>
       </c>
       <c r="C26" t="n">
-        <v>264745.1911046487</v>
+        <v>258810.3940193089</v>
       </c>
       <c r="D26" t="n">
         <v>180736.6669665626</v>
@@ -8244,10 +8244,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>288943.6757821734</v>
+        <v>270381.8898924313</v>
       </c>
       <c r="C27" t="n">
-        <v>281459.4592953749</v>
+        <v>264444.4888964447</v>
       </c>
       <c r="D27" t="n">
         <v>199133.0779405917</v>
@@ -8258,10 +8258,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>366923.5639980989</v>
+        <v>363126.643841342</v>
       </c>
       <c r="C28" t="n">
-        <v>358560.9713356772</v>
+        <v>355080.4611919834</v>
       </c>
       <c r="D28" t="n">
         <v>266572.4520490392</v>
@@ -8272,10 +8272,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>275724.7920114616</v>
+        <v>289953.3713858131</v>
       </c>
       <c r="C29" t="n">
-        <v>270644.886725751</v>
+        <v>283687.7511522399</v>
       </c>
       <c r="D29" t="n">
         <v>214765.9285829349</v>
@@ -8286,10 +8286,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>234822.4583243147</v>
+        <v>233494.3842602293</v>
       </c>
       <c r="C30" t="n">
-        <v>229534.7012180723</v>
+        <v>228317.2999926607</v>
       </c>
       <c r="D30" t="n">
         <v>171369.3730494062</v>
@@ -8300,10 +8300,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>321677.632930306</v>
+        <v>244765.2100296445</v>
       </c>
       <c r="C31" t="n">
-        <v>314183.898979417</v>
+        <v>243680.8446538106</v>
       </c>
       <c r="D31" t="n">
         <v>231752.8255196385</v>
@@ -8314,10 +8314,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>231175.2667216607</v>
+        <v>290822.2933147367</v>
       </c>
       <c r="C32" t="n">
-        <v>227201.4230951416</v>
+        <v>281877.8641387946</v>
       </c>
       <c r="D32" t="n">
         <v>183489.1432034318</v>
@@ -8328,10 +8328,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>301806.2093313963</v>
+        <v>350872.0865388474</v>
       </c>
       <c r="C33" t="n">
-        <v>294449.0844168307</v>
+        <v>339426.1385236609</v>
       </c>
       <c r="D33" t="n">
         <v>213520.7103566104</v>
@@ -8342,10 +8342,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>368148.749758667</v>
+        <v>287723.8735357159</v>
       </c>
       <c r="C34" t="n">
-        <v>359544.4262341589</v>
+        <v>285821.6230297869</v>
       </c>
       <c r="D34" t="n">
         <v>264896.867464569</v>
@@ -8356,10 +8356,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>387478.9978681617</v>
+        <v>306758.4611053637</v>
       </c>
       <c r="C35" t="n">
-        <v>378676.3252879232</v>
+        <v>304682.4999220251</v>
       </c>
       <c r="D35" t="n">
         <v>281846.9269053</v>
@@ -8370,10 +8370,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>308776.3375587392</v>
+        <v>357404.2142220432</v>
       </c>
       <c r="C36" t="n">
-        <v>300701.3757901387</v>
+        <v>345276.9293981675</v>
       </c>
       <c r="D36" t="n">
         <v>211876.796335534</v>
@@ -8384,10 +8384,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>249935.683240784</v>
+        <v>210108.2637641233</v>
       </c>
       <c r="C37" t="n">
-        <v>240137.0578287606</v>
+        <v>203628.589975155</v>
       </c>
       <c r="D37" t="n">
         <v>132352.1782965034</v>
@@ -8398,10 +8398,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>269228.3474048051</v>
+        <v>264683.861418021</v>
       </c>
       <c r="C38" t="n">
-        <v>259604.558056652</v>
+        <v>255438.7792354333</v>
       </c>
       <c r="D38" t="n">
         <v>153742.8752269678</v>
@@ -8412,10 +8412,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>289559.8160011215</v>
+        <v>268947.8162301522</v>
       </c>
       <c r="C39" t="n">
-        <v>279442.2546139779</v>
+        <v>260547.9214905894</v>
       </c>
       <c r="D39" t="n">
         <v>168149.0793553983</v>

--- a/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>84049.16425555514</v>
+        <v>97606.91372756555</v>
       </c>
       <c r="S2" t="n">
         <v>47404.74866038226</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>100455.9573164779</v>
+        <v>60898.45561442112</v>
       </c>
       <c r="S3" t="n">
         <v>45361.10656080859</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>120353.851741746</v>
+        <v>153382.5773785456</v>
       </c>
       <c r="S4" t="n">
         <v>65554.42265765439</v>

--- a/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>97606.91372756555</v>
+        <v>51767.4360734759</v>
       </c>
       <c r="S2" t="n">
         <v>47404.74866038226</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>60898.45561442112</v>
+        <v>89205.41908456972</v>
       </c>
       <c r="S3" t="n">
         <v>45361.10656080859</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>153382.5773785456</v>
+        <v>143183.5887188424</v>
       </c>
       <c r="S4" t="n">
         <v>65554.42265765439</v>

--- a/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_IAH-Int_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>51767.4360734759</v>
+        <v>96669.75301036479</v>
       </c>
       <c r="S2" t="n">
         <v>47404.74866038226</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>89205.41908456972</v>
+        <v>70164.71700201328</v>
       </c>
       <c r="S3" t="n">
         <v>45361.10656080859</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>143183.5887188424</v>
+        <v>99911.99579132113</v>
       </c>
       <c r="S4" t="n">
         <v>65554.42265765439</v>
